--- a/src/config.xlsx
+++ b/src/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\night_shift_data_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\Python Projects\night_shift_data_generator\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Point</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>csv</t>
+  </si>
+  <si>
+    <t>..\</t>
   </si>
 </sst>
 </file>
@@ -758,10 +761,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -791,6 +797,9 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
